--- a/PSP/문성혁/신수동크러셔_psp_20140424_문성혁.xlsx
+++ b/PSP/문성혁/신수동크러셔_psp_20140424_문성혁.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\다운로드\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C403B0C7-A08D-4C0F-97E2-DF7BF38898A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439AC36B-E4E3-47A6-A4AD-4E2FEC6A875A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>문성혁</t>
   </si>
@@ -81,7 +81,12 @@
     <t>팀원별 가용시간 도표화</t>
   </si>
   <si>
-    <t>Github 기본 세팅 및 사용 가이드 작성</t>
+    <t>Github 기본 세팅 및 사용 가이드 작성(1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Github 기본 세팅 및 사용 가이드 작성(2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -89,8 +94,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
-    <numFmt numFmtId="179" formatCode="am/pm\ h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
+    <numFmt numFmtId="177" formatCode="am/pm\ h:mm:ss"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -193,13 +198,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -208,7 +213,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,7 +443,7 @@
   <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -560,7 +565,7 @@
       </c>
       <c r="H7" s="19">
         <f>SUM(E6:E127)</f>
-        <v>206.99999999999989</v>
+        <v>236.99999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -626,18 +631,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>43718</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="D11" s="8">
         <v>0</v>
       </c>
       <c r="E11" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="12"/>
+        <v>30.000000000000053</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
@@ -1107,7 +1120,7 @@
       </c>
       <c r="F47" s="12"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -1120,7 +1133,7 @@
       </c>
       <c r="F48" s="12"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -1133,7 +1146,7 @@
       </c>
       <c r="F49" s="12"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -1146,7 +1159,7 @@
       </c>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -1159,7 +1172,7 @@
       </c>
       <c r="F51" s="12"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -1172,7 +1185,7 @@
       </c>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -1185,7 +1198,7 @@
       </c>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -1198,7 +1211,7 @@
       </c>
       <c r="F54" s="12"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -1211,7 +1224,7 @@
       </c>
       <c r="F55" s="12"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -1224,7 +1237,7 @@
       </c>
       <c r="F56" s="12"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -1237,7 +1250,7 @@
       </c>
       <c r="F57" s="12"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -1250,7 +1263,7 @@
       </c>
       <c r="F58" s="12"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -1263,7 +1276,7 @@
       </c>
       <c r="F59" s="12"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -1276,7 +1289,7 @@
       </c>
       <c r="F60" s="12"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -1289,7 +1302,7 @@
       </c>
       <c r="F61" s="12"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -1302,7 +1315,7 @@
       </c>
       <c r="F62" s="12"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -1315,7 +1328,7 @@
       </c>
       <c r="F63" s="12"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -1328,7 +1341,7 @@
       </c>
       <c r="F64" s="12"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -1341,7 +1354,7 @@
       </c>
       <c r="F65" s="12"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -1354,7 +1367,7 @@
       </c>
       <c r="F66" s="12"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -1367,7 +1380,7 @@
       </c>
       <c r="F67" s="12"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -1380,7 +1393,7 @@
       </c>
       <c r="F68" s="12"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -1393,7 +1406,7 @@
       </c>
       <c r="F69" s="12"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -1406,7 +1419,7 @@
       </c>
       <c r="F70" s="12"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -1419,7 +1432,7 @@
       </c>
       <c r="F71" s="12"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -1432,7 +1445,7 @@
       </c>
       <c r="F72" s="12"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -1445,7 +1458,7 @@
       </c>
       <c r="F73" s="12"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -1458,7 +1471,7 @@
       </c>
       <c r="F74" s="12"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -1471,7 +1484,7 @@
       </c>
       <c r="F75" s="12"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -1484,7 +1497,7 @@
       </c>
       <c r="F76" s="12"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -1497,7 +1510,7 @@
       </c>
       <c r="F77" s="12"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -1510,7 +1523,7 @@
       </c>
       <c r="F78" s="12"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -1523,7 +1536,7 @@
       </c>
       <c r="F79" s="12"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -1536,7 +1549,7 @@
       </c>
       <c r="F80" s="12"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -1549,7 +1562,7 @@
       </c>
       <c r="F81" s="12"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -1562,7 +1575,7 @@
       </c>
       <c r="F82" s="12"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -1575,7 +1588,7 @@
       </c>
       <c r="F83" s="12"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -1588,7 +1601,7 @@
       </c>
       <c r="F84" s="12"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -1601,7 +1614,7 @@
       </c>
       <c r="F85" s="12"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -1614,7 +1627,7 @@
       </c>
       <c r="F86" s="12"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -1627,7 +1640,7 @@
       </c>
       <c r="F87" s="12"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -1640,7 +1653,7 @@
       </c>
       <c r="F88" s="12"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -1653,7 +1666,7 @@
       </c>
       <c r="F89" s="12"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -1666,7 +1679,7 @@
       </c>
       <c r="F90" s="12"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -1679,7 +1692,7 @@
       </c>
       <c r="F91" s="12"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -1692,7 +1705,7 @@
       </c>
       <c r="F92" s="12"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -1705,7 +1718,7 @@
       </c>
       <c r="F93" s="12"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -1718,7 +1731,7 @@
       </c>
       <c r="F94" s="12"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -1731,7 +1744,7 @@
       </c>
       <c r="F95" s="12"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -1744,7 +1757,7 @@
       </c>
       <c r="F96" s="12"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -1757,7 +1770,7 @@
       </c>
       <c r="F97" s="12"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -1770,7 +1783,7 @@
       </c>
       <c r="F98" s="12"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -1783,7 +1796,7 @@
       </c>
       <c r="F99" s="12"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -1796,7 +1809,7 @@
       </c>
       <c r="F100" s="12"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -1809,7 +1822,7 @@
       </c>
       <c r="F101" s="12"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -1822,7 +1835,7 @@
       </c>
       <c r="F102" s="12"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -1835,7 +1848,7 @@
       </c>
       <c r="F103" s="12"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -1848,7 +1861,7 @@
       </c>
       <c r="F104" s="12"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -1861,7 +1874,7 @@
       </c>
       <c r="F105" s="12"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -1874,7 +1887,7 @@
       </c>
       <c r="F106" s="12"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -1887,7 +1900,7 @@
       </c>
       <c r="F107" s="12"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -1900,7 +1913,7 @@
       </c>
       <c r="F108" s="12"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -1913,7 +1926,7 @@
       </c>
       <c r="F109" s="12"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -1926,7 +1939,7 @@
       </c>
       <c r="F110" s="12"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -1939,7 +1952,7 @@
       </c>
       <c r="F111" s="12"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -1952,7 +1965,7 @@
       </c>
       <c r="F112" s="12"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -1965,7 +1978,7 @@
       </c>
       <c r="F113" s="12"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -1978,7 +1991,7 @@
       </c>
       <c r="F114" s="12"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -1991,7 +2004,7 @@
       </c>
       <c r="F115" s="12"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -2004,7 +2017,7 @@
       </c>
       <c r="F116" s="12"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -2017,7 +2030,7 @@
       </c>
       <c r="F117" s="12"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -2030,7 +2043,7 @@
       </c>
       <c r="F118" s="12"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -2043,7 +2056,7 @@
       </c>
       <c r="F119" s="12"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -2056,7 +2069,7 @@
       </c>
       <c r="F120" s="12"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -2069,7 +2082,7 @@
       </c>
       <c r="F121" s="12"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -2082,7 +2095,7 @@
       </c>
       <c r="F122" s="12"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -2095,7 +2108,7 @@
       </c>
       <c r="F123" s="12"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -2108,7 +2121,7 @@
       </c>
       <c r="F124" s="12"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -2121,7 +2134,7 @@
       </c>
       <c r="F125" s="12"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -2134,7 +2147,7 @@
       </c>
       <c r="F126" s="12"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>

--- a/PSP/문성혁/신수동크러셔_psp_20140424_문성혁.xlsx
+++ b/PSP/문성혁/신수동크러셔_psp_20140424_문성혁.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\workbench\sinsudong-crusher-home\PSP\문성혁\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790DB46A-52BF-4B5B-B305-1819F721C110}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="문성혁" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="문성혁" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,88 +31,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t xml:space="preserve">Time Recording Log</t>
+    <t>Time Recording Log</t>
   </si>
   <si>
-    <t xml:space="preserve">PSP: Personal Software Process</t>
+    <t>PSP: Personal Software Process</t>
   </si>
   <si>
-    <t xml:space="preserve">팀명:</t>
+    <t>팀명:</t>
   </si>
   <si>
-    <t xml:space="preserve">신수동 크러셔</t>
+    <t>신수동 크러셔</t>
   </si>
   <si>
-    <t xml:space="preserve">작성자명:</t>
+    <t>작성자명:</t>
   </si>
   <si>
-    <t xml:space="preserve">문성혁</t>
+    <t>문성혁</t>
   </si>
   <si>
-    <t xml:space="preserve">Date</t>
+    <t>Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Start</t>
+    <t>Start</t>
   </si>
   <si>
-    <t xml:space="preserve">Stop</t>
+    <t>Stop</t>
   </si>
   <si>
-    <t xml:space="preserve">Interruption Time</t>
+    <t>Interruption Time</t>
   </si>
   <si>
-    <t xml:space="preserve">Delta Time</t>
+    <t>Delta Time</t>
   </si>
   <si>
-    <t xml:space="preserve">Activity</t>
+    <t>Activity</t>
   </si>
   <si>
-    <t xml:space="preserve">프로젝트 회의</t>
+    <t>프로젝트 회의</t>
   </si>
   <si>
-    <t xml:space="preserve">Delta  Time Sum</t>
+    <t>Delta  Time Sum</t>
   </si>
   <si>
-    <t xml:space="preserve">SNS 형태의 애플리케이션 제안</t>
+    <t>SNS 형태의 애플리케이션 제안</t>
   </si>
   <si>
-    <t xml:space="preserve">경쟁 서비스 조사 및 도표화</t>
+    <t>경쟁 서비스 조사 및 도표화</t>
   </si>
   <si>
-    <t xml:space="preserve">팀원별 가용시간 도표화</t>
+    <t>팀원별 가용시간 도표화</t>
   </si>
   <si>
-    <t xml:space="preserve">팀프로젝트(Project Planning) 발표자료 검토 및 피드백 제시</t>
+    <t>팀프로젝트(Project Planning) 발표자료 검토 및 피드백 제시</t>
   </si>
   <si>
-    <t xml:space="preserve">Github 기본 세팅 및 사용 가이드 데모영상 제작(1)</t>
+    <t>Github 기본 세팅 및 사용 가이드 데모영상 제작(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Github 기본 세팅 및 사용 가이드 데모영상 제작(2)</t>
+    <t>Github 기본 세팅 및 사용 가이드 데모영상 제작(2)</t>
   </si>
   <si>
-    <t xml:space="preserve">팀프로젝트(Target Application Refinement) 발표자료 검토 및 피드백 제시</t>
+    <t>팀프로젝트(Target Application Refinement) 발표자료 검토 및 피드백 제시</t>
   </si>
   <si>
-    <t xml:space="preserve">Github 추가 레포지토리 기본 세팅</t>
+    <t>Github 추가 레포지토리 기본 세팅</t>
   </si>
   <si>
-    <t xml:space="preserve">한국관광공사 Tour API 3.0 분석, 정리 및 문서화</t>
+    <t>한국관광공사 Tour API 3.0 분석, 정리 및 문서화</t>
+  </si>
+  <si>
+    <t>웹 애플리케이션 개념도 제작 및 팀원들과 공유</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M&quot;월 &quot;D\일"/>
-    <numFmt numFmtId="166" formatCode="AM/PM\ H:MM:SS"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="m&quot;월 &quot;d&quot;일&quot;"/>
+    <numFmt numFmtId="177" formatCode="AM/PM\ h:mm:ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -109,37 +122,21 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK KR"/>
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="돋움"/>
@@ -157,8 +154,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -176,124 +178,78 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -352,32 +308,340 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="60.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="40.15"/>
+    <col min="2" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="60.85546875" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
+    <col min="9" max="9" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -389,7 +653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -397,7 +661,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -413,7 +677,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -421,7 +685,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -441,21 +705,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A6" s="8">
         <v>43714</v>
       </c>
-      <c r="B6" s="9" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="C6" s="9" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11" t="n">
-        <f aca="false">(C6-B6)*1440-D6</f>
+      <c r="B6" s="9">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" ref="E6:E37" si="0">(C6-B6)*1440-D6</f>
         <v>90</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -465,1656 +729,1664 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A7" s="14">
         <v>43715</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="9">
         <v>0.625</v>
       </c>
-      <c r="C7" s="9" t="n">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="D7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11" t="n">
-        <f aca="false">(C7-B7)*1440-D7</f>
-        <v>19.9999999999999</v>
+      <c r="C7" s="9">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>20.000000000000089</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="15" t="n">
-        <f aca="false">SUM(E6:E127)</f>
-        <v>452</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="H7" s="15">
+        <f>SUM(E6:E127)</f>
+        <v>472.00000000000063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A8" s="14">
         <v>43715</v>
       </c>
-      <c r="B8" s="9" t="n">
-        <v>0.572916666666667</v>
-      </c>
-      <c r="C8" s="9" t="n">
+      <c r="B8" s="9">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="C8" s="9">
         <v>0.59375</v>
       </c>
-      <c r="D8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11" t="n">
-        <f aca="false">(C8-B8)*1440-D8</f>
-        <v>30.0000000000001</v>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>29.999999999999574</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A9" s="8">
         <v>43716</v>
       </c>
-      <c r="B9" s="9" t="n">
-        <v>0.652777777777778</v>
-      </c>
-      <c r="C9" s="9" t="n">
-        <v>0.664583333333333</v>
-      </c>
-      <c r="D9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11" t="n">
-        <f aca="false">(C9-B9)*1440-D9</f>
-        <v>16.9999999999999</v>
+      <c r="B9" s="9">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.66458333333333297</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>16.99999999999914</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A10" s="8">
         <v>43718</v>
       </c>
-      <c r="B10" s="9" t="n">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="C10" s="9" t="n">
-        <v>0.388888888888889</v>
-      </c>
-      <c r="D10" s="10" t="n">
+      <c r="B10" s="9">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.38888888888888901</v>
+      </c>
+      <c r="D10" s="10">
         <v>20</v>
       </c>
-      <c r="E10" s="11" t="n">
-        <f aca="false">(C10-B10)*1440-D10</f>
-        <v>30</v>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>29.999999999999659</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A11" s="8">
         <v>43718</v>
       </c>
-      <c r="B11" s="9" t="n">
-        <v>0.694444444444444</v>
-      </c>
-      <c r="C11" s="9" t="n">
-        <v>0.729166666666667</v>
-      </c>
-      <c r="D11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11" t="n">
-        <f aca="false">(C11-B11)*1440-D11</f>
-        <v>50</v>
+      <c r="B11" s="9">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>50.000000000001101</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A12" s="8">
         <v>43718</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="9">
         <v>0.875</v>
       </c>
-      <c r="C12" s="9" t="n">
-        <v>0.895833333333333</v>
-      </c>
-      <c r="D12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11" t="n">
-        <f aca="false">(C12-B12)*1440-D12</f>
-        <v>30.0000000000001</v>
+      <c r="C12" s="9">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>29.999999999999574</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A13" s="8">
         <v>43727</v>
       </c>
-      <c r="B13" s="9" t="n">
-        <v>0.868055555555555</v>
-      </c>
-      <c r="C13" s="9" t="n">
-        <v>0.897916666666667</v>
-      </c>
-      <c r="D13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11" t="n">
-        <f aca="false">(C13-B13)*1440-D13</f>
-        <v>43.0000000000002</v>
+      <c r="B13" s="9">
+        <v>0.86805555555555503</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.89791666666666703</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>43.000000000001286</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A14" s="8">
         <v>43727</v>
       </c>
-      <c r="B14" s="9" t="n">
-        <v>0.570138888888889</v>
-      </c>
-      <c r="C14" s="9" t="n">
-        <v>0.571527777777778</v>
-      </c>
-      <c r="D14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11" t="n">
-        <f aca="false">(C14-B14)*1440-D14</f>
-        <v>1.99999999999983</v>
+      <c r="B14" s="9">
+        <v>0.57013888888888897</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.57152777777777797</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0000000000001528</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A15" s="8">
         <v>43742</v>
       </c>
-      <c r="B15" s="9" t="n">
-        <v>0.708339362251157</v>
-      </c>
-      <c r="C15" s="9" t="n">
-        <v>0.812506028917824</v>
-      </c>
-      <c r="D15" s="10" t="n">
+      <c r="B15" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.8125</v>
+      </c>
+      <c r="D15" s="10">
         <v>10</v>
       </c>
-      <c r="E15" s="11" t="n">
-        <f aca="false">(C15-B15)*1440-D15</f>
-        <v>140</v>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>139.99999999999994</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11" t="n">
-        <f aca="false">(C16-B16)*1440-D16</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A16" s="8">
+        <v>43748</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D16" s="10">
+        <v>10</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="0"/>
+        <v>20.000000000000053</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11" t="n">
-        <f aca="false">(C17-B17)*1440-D17</f>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="11" t="n">
-        <f aca="false">(C18-B18)*1440-D18</f>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="12.75" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="11" t="n">
-        <f aca="false">(C19-B19)*1440-D19</f>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="12.75" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="11" t="n">
-        <f aca="false">(C20-B20)*1440-D20</f>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11" t="n">
-        <f aca="false">(C21-B21)*1440-D21</f>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="12.75" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="11" t="n">
-        <f aca="false">(C22-B22)*1440-D22</f>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="12.75" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="11" t="n">
-        <f aca="false">(C23-B23)*1440-D23</f>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="11" t="n">
-        <f aca="false">(C24-B24)*1440-D24</f>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="12.75" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11" t="n">
-        <f aca="false">(C25-B25)*1440-D25</f>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="12.75" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="11" t="n">
-        <f aca="false">(C26-B26)*1440-D26</f>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="12.75" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="11" t="n">
-        <f aca="false">(C27-B27)*1440-D27</f>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="12.75" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="11" t="n">
-        <f aca="false">(C28-B28)*1440-D28</f>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="12.75" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="11" t="n">
-        <f aca="false">(C29-B29)*1440-D29</f>
+      <c r="D29" s="10">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="12.75" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="11" t="n">
-        <f aca="false">(C30-B30)*1440-D30</f>
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
+      <c r="E30" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="12.75" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="11" t="n">
-        <f aca="false">(C31-B31)*1440-D31</f>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="12.75" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="11" t="n">
-        <f aca="false">(C32-B32)*1440-D32</f>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="12.75" customHeight="1">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="11" t="n">
-        <f aca="false">(C33-B33)*1440-D33</f>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="12.75" customHeight="1">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="11" t="n">
-        <f aca="false">(C34-B34)*1440-D34</f>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="12.75" customHeight="1">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="11" t="n">
-        <f aca="false">(C35-B35)*1440-D35</f>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="E35" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="12.75" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="11" t="n">
-        <f aca="false">(C36-B36)*1440-D36</f>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="12.75" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="11" t="n">
-        <f aca="false">(C37-B37)*1440-D37</f>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="12.75" customHeight="1">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="11" t="n">
-        <f aca="false">(C38-B38)*1440-D38</f>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <f t="shared" ref="E38:E69" si="1">(C38-B38)*1440-D38</f>
         <v>0</v>
       </c>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="12.75" customHeight="1">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="11" t="n">
-        <f aca="false">(C39-B39)*1440-D39</f>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="E39" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="12.75" customHeight="1">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="11" t="n">
-        <f aca="false">(C40-B40)*1440-D40</f>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="12.75" customHeight="1">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="11" t="n">
-        <f aca="false">(C41-B41)*1440-D41</f>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="12.75" customHeight="1">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="11" t="n">
-        <f aca="false">(C42-B42)*1440-D42</f>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="12.75" customHeight="1">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
-      <c r="D43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="11" t="n">
-        <f aca="false">(C43-B43)*1440-D43</f>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="12.75" customHeight="1">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
-      <c r="D44" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="11" t="n">
-        <f aca="false">(C44-B44)*1440-D44</f>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+      <c r="E44" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="12.75" customHeight="1">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
-      <c r="D45" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="11" t="n">
-        <f aca="false">(C45-B45)*1440-D45</f>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+      <c r="E45" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="12.75" customHeight="1">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
-      <c r="D46" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="11" t="n">
-        <f aca="false">(C46-B46)*1440-D46</f>
+      <c r="D46" s="10">
+        <v>0</v>
+      </c>
+      <c r="E46" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F46" s="12"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="12.75" customHeight="1">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
-      <c r="D47" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="11" t="n">
-        <f aca="false">(C47-B47)*1440-D47</f>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+      <c r="E47" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F47" s="12"/>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="12.75" customHeight="1">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
-      <c r="D48" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="11" t="n">
-        <f aca="false">(C48-B48)*1440-D48</f>
+      <c r="D48" s="10">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F48" s="12"/>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="12.75" customHeight="1">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="11" t="n">
-        <f aca="false">(C49-B49)*1440-D49</f>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+      <c r="E49" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F49" s="12"/>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="12.75" customHeight="1">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
-      <c r="D50" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="11" t="n">
-        <f aca="false">(C50-B50)*1440-D50</f>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="12.75" customHeight="1">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
-      <c r="D51" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="11" t="n">
-        <f aca="false">(C51-B51)*1440-D51</f>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F51" s="12"/>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" ht="12.75" customHeight="1">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
-      <c r="D52" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" s="11" t="n">
-        <f aca="false">(C52-B52)*1440-D52</f>
+      <c r="D52" s="10">
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" ht="12.75" customHeight="1">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
-      <c r="D53" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="11" t="n">
-        <f aca="false">(C53-B53)*1440-D53</f>
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
+      <c r="E53" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" ht="12.75" customHeight="1">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
-      <c r="D54" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="11" t="n">
-        <f aca="false">(C54-B54)*1440-D54</f>
+      <c r="D54" s="10">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F54" s="12"/>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6" ht="12.75" customHeight="1">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
-      <c r="D55" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="11" t="n">
-        <f aca="false">(C55-B55)*1440-D55</f>
+      <c r="D55" s="10">
+        <v>0</v>
+      </c>
+      <c r="E55" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F55" s="12"/>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6" ht="12.75" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
-      <c r="D56" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="11" t="n">
-        <f aca="false">(C56-B56)*1440-D56</f>
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
+      <c r="E56" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F56" s="12"/>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6" ht="12.75" customHeight="1">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
-      <c r="D57" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" s="11" t="n">
-        <f aca="false">(C57-B57)*1440-D57</f>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+      <c r="E57" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F57" s="12"/>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:6" ht="12.75" customHeight="1">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
-      <c r="D58" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" s="11" t="n">
-        <f aca="false">(C58-B58)*1440-D58</f>
+      <c r="D58" s="10">
+        <v>0</v>
+      </c>
+      <c r="E58" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F58" s="12"/>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:6" ht="12.75" customHeight="1">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
-      <c r="D59" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" s="11" t="n">
-        <f aca="false">(C59-B59)*1440-D59</f>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+      <c r="E59" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F59" s="12"/>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:6" ht="12.75" customHeight="1">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
-      <c r="D60" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" s="11" t="n">
-        <f aca="false">(C60-B60)*1440-D60</f>
+      <c r="D60" s="10">
+        <v>0</v>
+      </c>
+      <c r="E60" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F60" s="12"/>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:6" ht="12.75" customHeight="1">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
-      <c r="D61" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" s="11" t="n">
-        <f aca="false">(C61-B61)*1440-D61</f>
+      <c r="D61" s="10">
+        <v>0</v>
+      </c>
+      <c r="E61" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F61" s="12"/>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:6" ht="12.75" customHeight="1">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
-      <c r="D62" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" s="11" t="n">
-        <f aca="false">(C62-B62)*1440-D62</f>
+      <c r="D62" s="10">
+        <v>0</v>
+      </c>
+      <c r="E62" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F62" s="12"/>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:6" ht="12.75" customHeight="1">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
-      <c r="D63" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="11" t="n">
-        <f aca="false">(C63-B63)*1440-D63</f>
+      <c r="D63" s="10">
+        <v>0</v>
+      </c>
+      <c r="E63" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F63" s="12"/>
     </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:6" ht="12.75" customHeight="1">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
-      <c r="D64" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" s="11" t="n">
-        <f aca="false">(C64-B64)*1440-D64</f>
+      <c r="D64" s="10">
+        <v>0</v>
+      </c>
+      <c r="E64" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F64" s="12"/>
     </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:6" ht="12.75" customHeight="1">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
-      <c r="D65" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="11" t="n">
-        <f aca="false">(C65-B65)*1440-D65</f>
+      <c r="D65" s="10">
+        <v>0</v>
+      </c>
+      <c r="E65" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F65" s="12"/>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:6" ht="12.75" customHeight="1">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
-      <c r="D66" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" s="11" t="n">
-        <f aca="false">(C66-B66)*1440-D66</f>
+      <c r="D66" s="10">
+        <v>0</v>
+      </c>
+      <c r="E66" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F66" s="12"/>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:6" ht="12.75" customHeight="1">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
-      <c r="D67" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" s="11" t="n">
-        <f aca="false">(C67-B67)*1440-D67</f>
+      <c r="D67" s="10">
+        <v>0</v>
+      </c>
+      <c r="E67" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F67" s="12"/>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:6" ht="12.75" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
-      <c r="D68" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" s="11" t="n">
-        <f aca="false">(C68-B68)*1440-D68</f>
+      <c r="D68" s="10">
+        <v>0</v>
+      </c>
+      <c r="E68" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F68" s="12"/>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:6" ht="12.75" customHeight="1">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
-      <c r="D69" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="11" t="n">
-        <f aca="false">(C69-B69)*1440-D69</f>
+      <c r="D69" s="10">
+        <v>0</v>
+      </c>
+      <c r="E69" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F69" s="12"/>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:6" ht="12.75" customHeight="1">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
-      <c r="D70" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" s="11" t="n">
-        <f aca="false">(C70-B70)*1440-D70</f>
+      <c r="D70" s="10">
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
+        <f t="shared" ref="E70:E101" si="2">(C70-B70)*1440-D70</f>
         <v>0</v>
       </c>
       <c r="F70" s="12"/>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:6" ht="12.75" customHeight="1">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
-      <c r="D71" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" s="11" t="n">
-        <f aca="false">(C71-B71)*1440-D71</f>
+      <c r="D71" s="10">
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F71" s="12"/>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:6" ht="12.75" customHeight="1">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
-      <c r="D72" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" s="11" t="n">
-        <f aca="false">(C72-B72)*1440-D72</f>
+      <c r="D72" s="10">
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F72" s="12"/>
     </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:6" ht="12.75" customHeight="1">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
-      <c r="D73" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" s="11" t="n">
-        <f aca="false">(C73-B73)*1440-D73</f>
+      <c r="D73" s="10">
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F73" s="12"/>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:6" ht="12.75" customHeight="1">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
-      <c r="D74" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" s="11" t="n">
-        <f aca="false">(C74-B74)*1440-D74</f>
+      <c r="D74" s="10">
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F74" s="12"/>
     </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:6" ht="12.75" customHeight="1">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
-      <c r="D75" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" s="11" t="n">
-        <f aca="false">(C75-B75)*1440-D75</f>
+      <c r="D75" s="10">
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F75" s="12"/>
     </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:6" ht="12.75" customHeight="1">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
-      <c r="D76" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" s="11" t="n">
-        <f aca="false">(C76-B76)*1440-D76</f>
+      <c r="D76" s="10">
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F76" s="12"/>
     </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:6" ht="12.75" customHeight="1">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
-      <c r="D77" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" s="11" t="n">
-        <f aca="false">(C77-B77)*1440-D77</f>
+      <c r="D77" s="10">
+        <v>0</v>
+      </c>
+      <c r="E77" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F77" s="12"/>
     </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:6" ht="12.75" customHeight="1">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
-      <c r="D78" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" s="11" t="n">
-        <f aca="false">(C78-B78)*1440-D78</f>
+      <c r="D78" s="10">
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F78" s="12"/>
     </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:6" ht="12.75" customHeight="1">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
-      <c r="D79" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" s="11" t="n">
-        <f aca="false">(C79-B79)*1440-D79</f>
+      <c r="D79" s="10">
+        <v>0</v>
+      </c>
+      <c r="E79" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F79" s="12"/>
     </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:6" ht="12.75" customHeight="1">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
-      <c r="D80" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" s="11" t="n">
-        <f aca="false">(C80-B80)*1440-D80</f>
+      <c r="D80" s="10">
+        <v>0</v>
+      </c>
+      <c r="E80" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F80" s="12"/>
     </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:6" ht="12.75" customHeight="1">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
-      <c r="D81" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" s="11" t="n">
-        <f aca="false">(C81-B81)*1440-D81</f>
+      <c r="D81" s="10">
+        <v>0</v>
+      </c>
+      <c r="E81" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F81" s="12"/>
     </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:6" ht="12.75" customHeight="1">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
-      <c r="D82" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" s="11" t="n">
-        <f aca="false">(C82-B82)*1440-D82</f>
+      <c r="D82" s="10">
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F82" s="12"/>
     </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:6" ht="12.75" customHeight="1">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
-      <c r="D83" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" s="11" t="n">
-        <f aca="false">(C83-B83)*1440-D83</f>
+      <c r="D83" s="10">
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F83" s="12"/>
     </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:6" ht="12.75" customHeight="1">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
-      <c r="D84" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" s="11" t="n">
-        <f aca="false">(C84-B84)*1440-D84</f>
+      <c r="D84" s="10">
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F84" s="12"/>
     </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:6" ht="12.75" customHeight="1">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
-      <c r="D85" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" s="11" t="n">
-        <f aca="false">(C85-B85)*1440-D85</f>
+      <c r="D85" s="10">
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F85" s="12"/>
     </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:6" ht="12.75" customHeight="1">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
-      <c r="D86" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" s="11" t="n">
-        <f aca="false">(C86-B86)*1440-D86</f>
+      <c r="D86" s="10">
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F86" s="12"/>
     </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:6" ht="12.75" customHeight="1">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
-      <c r="D87" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" s="11" t="n">
-        <f aca="false">(C87-B87)*1440-D87</f>
+      <c r="D87" s="10">
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F87" s="12"/>
     </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:6" ht="12.75" customHeight="1">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
-      <c r="D88" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" s="11" t="n">
-        <f aca="false">(C88-B88)*1440-D88</f>
+      <c r="D88" s="10">
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F88" s="12"/>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:6" ht="12.75" customHeight="1">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
-      <c r="D89" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" s="11" t="n">
-        <f aca="false">(C89-B89)*1440-D89</f>
+      <c r="D89" s="10">
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F89" s="12"/>
     </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:6" ht="12.75" customHeight="1">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
-      <c r="D90" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" s="11" t="n">
-        <f aca="false">(C90-B90)*1440-D90</f>
+      <c r="D90" s="10">
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F90" s="12"/>
     </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:6" ht="12.75" customHeight="1">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
-      <c r="D91" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" s="11" t="n">
-        <f aca="false">(C91-B91)*1440-D91</f>
+      <c r="D91" s="10">
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F91" s="12"/>
     </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:6" ht="12.75" customHeight="1">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
-      <c r="D92" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" s="11" t="n">
-        <f aca="false">(C92-B92)*1440-D92</f>
+      <c r="D92" s="10">
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F92" s="12"/>
     </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:6" ht="12.75" customHeight="1">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
-      <c r="D93" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" s="11" t="n">
-        <f aca="false">(C93-B93)*1440-D93</f>
+      <c r="D93" s="10">
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F93" s="12"/>
     </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:6" ht="12.75" customHeight="1">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
-      <c r="D94" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" s="11" t="n">
-        <f aca="false">(C94-B94)*1440-D94</f>
+      <c r="D94" s="10">
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F94" s="12"/>
     </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:6" ht="12.75" customHeight="1">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
-      <c r="D95" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" s="11" t="n">
-        <f aca="false">(C95-B95)*1440-D95</f>
+      <c r="D95" s="10">
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F95" s="12"/>
     </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:6" ht="12.75" customHeight="1">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
-      <c r="D96" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" s="11" t="n">
-        <f aca="false">(C96-B96)*1440-D96</f>
+      <c r="D96" s="10">
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F96" s="12"/>
     </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:6" ht="12.75" customHeight="1">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
-      <c r="D97" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" s="11" t="n">
-        <f aca="false">(C97-B97)*1440-D97</f>
+      <c r="D97" s="10">
+        <v>0</v>
+      </c>
+      <c r="E97" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F97" s="12"/>
     </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:6" ht="12.75" customHeight="1">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
-      <c r="D98" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" s="11" t="n">
-        <f aca="false">(C98-B98)*1440-D98</f>
+      <c r="D98" s="10">
+        <v>0</v>
+      </c>
+      <c r="E98" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F98" s="12"/>
     </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:6" ht="12.75" customHeight="1">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
-      <c r="D99" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" s="11" t="n">
-        <f aca="false">(C99-B99)*1440-D99</f>
+      <c r="D99" s="10">
+        <v>0</v>
+      </c>
+      <c r="E99" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F99" s="12"/>
     </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:6" ht="12.75" customHeight="1">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
-      <c r="D100" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" s="11" t="n">
-        <f aca="false">(C100-B100)*1440-D100</f>
+      <c r="D100" s="10">
+        <v>0</v>
+      </c>
+      <c r="E100" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F100" s="12"/>
     </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:6" ht="12.75" customHeight="1">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
-      <c r="D101" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" s="11" t="n">
-        <f aca="false">(C101-B101)*1440-D101</f>
+      <c r="D101" s="10">
+        <v>0</v>
+      </c>
+      <c r="E101" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F101" s="12"/>
     </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:6" ht="12.75" customHeight="1">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
-      <c r="D102" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" s="11" t="n">
-        <f aca="false">(C102-B102)*1440-D102</f>
+      <c r="D102" s="10">
+        <v>0</v>
+      </c>
+      <c r="E102" s="11">
+        <f t="shared" ref="E102:E133" si="3">(C102-B102)*1440-D102</f>
         <v>0</v>
       </c>
       <c r="F102" s="12"/>
     </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:6" ht="12.75" customHeight="1">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
-      <c r="D103" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" s="11" t="n">
-        <f aca="false">(C103-B103)*1440-D103</f>
+      <c r="D103" s="10">
+        <v>0</v>
+      </c>
+      <c r="E103" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F103" s="12"/>
     </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:6" ht="12.75" customHeight="1">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
-      <c r="D104" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" s="11" t="n">
-        <f aca="false">(C104-B104)*1440-D104</f>
+      <c r="D104" s="10">
+        <v>0</v>
+      </c>
+      <c r="E104" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F104" s="12"/>
     </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:6" ht="12.75" customHeight="1">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
-      <c r="D105" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" s="11" t="n">
-        <f aca="false">(C105-B105)*1440-D105</f>
+      <c r="D105" s="10">
+        <v>0</v>
+      </c>
+      <c r="E105" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F105" s="12"/>
     </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:6" ht="12.75" customHeight="1">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
-      <c r="D106" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" s="11" t="n">
-        <f aca="false">(C106-B106)*1440-D106</f>
+      <c r="D106" s="10">
+        <v>0</v>
+      </c>
+      <c r="E106" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F106" s="12"/>
     </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:6" ht="12.75" customHeight="1">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
-      <c r="D107" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" s="11" t="n">
-        <f aca="false">(C107-B107)*1440-D107</f>
+      <c r="D107" s="10">
+        <v>0</v>
+      </c>
+      <c r="E107" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F107" s="12"/>
     </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:6" ht="12.75" customHeight="1">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
-      <c r="D108" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" s="11" t="n">
-        <f aca="false">(C108-B108)*1440-D108</f>
+      <c r="D108" s="10">
+        <v>0</v>
+      </c>
+      <c r="E108" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F108" s="12"/>
     </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:6" ht="12.75" customHeight="1">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
-      <c r="D109" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" s="11" t="n">
-        <f aca="false">(C109-B109)*1440-D109</f>
+      <c r="D109" s="10">
+        <v>0</v>
+      </c>
+      <c r="E109" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F109" s="12"/>
     </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:6" ht="12.75" customHeight="1">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
-      <c r="D110" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" s="11" t="n">
-        <f aca="false">(C110-B110)*1440-D110</f>
+      <c r="D110" s="10">
+        <v>0</v>
+      </c>
+      <c r="E110" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F110" s="12"/>
     </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:6" ht="12.75" customHeight="1">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
-      <c r="D111" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" s="11" t="n">
-        <f aca="false">(C111-B111)*1440-D111</f>
+      <c r="D111" s="10">
+        <v>0</v>
+      </c>
+      <c r="E111" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F111" s="12"/>
     </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:6" ht="12.75" customHeight="1">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
-      <c r="D112" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" s="11" t="n">
-        <f aca="false">(C112-B112)*1440-D112</f>
+      <c r="D112" s="10">
+        <v>0</v>
+      </c>
+      <c r="E112" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F112" s="12"/>
     </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:6" ht="12.75" customHeight="1">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
-      <c r="D113" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" s="11" t="n">
-        <f aca="false">(C113-B113)*1440-D113</f>
+      <c r="D113" s="10">
+        <v>0</v>
+      </c>
+      <c r="E113" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F113" s="12"/>
     </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:6" ht="12.75" customHeight="1">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
-      <c r="D114" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" s="11" t="n">
-        <f aca="false">(C114-B114)*1440-D114</f>
+      <c r="D114" s="10">
+        <v>0</v>
+      </c>
+      <c r="E114" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F114" s="12"/>
     </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:6" ht="12.75" customHeight="1">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
-      <c r="D115" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" s="11" t="n">
-        <f aca="false">(C115-B115)*1440-D115</f>
+      <c r="D115" s="10">
+        <v>0</v>
+      </c>
+      <c r="E115" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F115" s="12"/>
     </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:6" ht="12.75" customHeight="1">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
-      <c r="D116" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" s="11" t="n">
-        <f aca="false">(C116-B116)*1440-D116</f>
+      <c r="D116" s="10">
+        <v>0</v>
+      </c>
+      <c r="E116" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F116" s="12"/>
     </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:6" ht="12.75" customHeight="1">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
-      <c r="D117" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" s="11" t="n">
-        <f aca="false">(C117-B117)*1440-D117</f>
+      <c r="D117" s="10">
+        <v>0</v>
+      </c>
+      <c r="E117" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F117" s="12"/>
     </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:6" ht="12.75" customHeight="1">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
-      <c r="D118" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" s="11" t="n">
-        <f aca="false">(C118-B118)*1440-D118</f>
+      <c r="D118" s="10">
+        <v>0</v>
+      </c>
+      <c r="E118" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F118" s="12"/>
     </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:6" ht="12.75" customHeight="1">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
-      <c r="D119" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" s="11" t="n">
-        <f aca="false">(C119-B119)*1440-D119</f>
+      <c r="D119" s="10">
+        <v>0</v>
+      </c>
+      <c r="E119" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F119" s="12"/>
     </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:6" ht="12.75" customHeight="1">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
-      <c r="D120" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" s="11" t="n">
-        <f aca="false">(C120-B120)*1440-D120</f>
+      <c r="D120" s="10">
+        <v>0</v>
+      </c>
+      <c r="E120" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F120" s="12"/>
     </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:6" ht="12.75" customHeight="1">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
-      <c r="D121" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" s="11" t="n">
-        <f aca="false">(C121-B121)*1440-D121</f>
+      <c r="D121" s="10">
+        <v>0</v>
+      </c>
+      <c r="E121" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F121" s="12"/>
     </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:6" ht="12.75" customHeight="1">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
-      <c r="D122" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" s="11" t="n">
-        <f aca="false">(C122-B122)*1440-D122</f>
+      <c r="D122" s="10">
+        <v>0</v>
+      </c>
+      <c r="E122" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F122" s="12"/>
     </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:6" ht="12.75" customHeight="1">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
-      <c r="D123" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="11" t="n">
-        <f aca="false">(C123-B123)*1440-D123</f>
+      <c r="D123" s="10">
+        <v>0</v>
+      </c>
+      <c r="E123" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F123" s="12"/>
     </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:6" ht="12.75" customHeight="1">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
-      <c r="D124" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" s="11" t="n">
-        <f aca="false">(C124-B124)*1440-D124</f>
+      <c r="D124" s="10">
+        <v>0</v>
+      </c>
+      <c r="E124" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F124" s="12"/>
     </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:6" ht="12.75" customHeight="1">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
-      <c r="D125" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" s="11" t="n">
-        <f aca="false">(C125-B125)*1440-D125</f>
+      <c r="D125" s="10">
+        <v>0</v>
+      </c>
+      <c r="E125" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F125" s="12"/>
     </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:6" ht="12.75" customHeight="1">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
-      <c r="D126" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="11" t="n">
-        <f aca="false">(C126-B126)*1440-D126</f>
+      <c r="D126" s="10">
+        <v>0</v>
+      </c>
+      <c r="E126" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F126" s="12"/>
     </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:6" ht="12.75" customHeight="1">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
-      <c r="D127" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" s="11" t="n">
-        <f aca="false">(C127-B127)*1440-D127</f>
+      <c r="D127" s="10">
+        <v>0</v>
+      </c>
+      <c r="E127" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F127" s="12"/>
     </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:6" ht="12.75" customHeight="1">
       <c r="A128" s="16"/>
       <c r="B128" s="16"/>
       <c r="C128" s="16"/>
@@ -2122,7 +2394,7 @@
       <c r="E128" s="16"/>
       <c r="F128" s="16"/>
     </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:6" ht="12.75" customHeight="1">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
@@ -2130,7 +2402,7 @@
       <c r="E129" s="16"/>
       <c r="F129" s="16"/>
     </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:6" ht="12.75" customHeight="1">
       <c r="A130" s="16"/>
       <c r="B130" s="16"/>
       <c r="C130" s="16"/>
@@ -2138,7 +2410,7 @@
       <c r="E130" s="16"/>
       <c r="F130" s="16"/>
     </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:6" ht="12.75" customHeight="1">
       <c r="A131" s="16"/>
       <c r="B131" s="16"/>
       <c r="C131" s="16"/>
@@ -2146,7 +2418,7 @@
       <c r="E131" s="16"/>
       <c r="F131" s="16"/>
     </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:6" ht="12.75" customHeight="1">
       <c r="A132" s="16"/>
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
@@ -2154,7 +2426,7 @@
       <c r="E132" s="16"/>
       <c r="F132" s="16"/>
     </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:6" ht="12.75" customHeight="1">
       <c r="A133" s="16"/>
       <c r="B133" s="16"/>
       <c r="C133" s="16"/>
@@ -2162,7 +2434,7 @@
       <c r="E133" s="16"/>
       <c r="F133" s="16"/>
     </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:6" ht="12.75" customHeight="1">
       <c r="A134" s="16"/>
       <c r="B134" s="16"/>
       <c r="C134" s="16"/>
@@ -2170,7 +2442,7 @@
       <c r="E134" s="16"/>
       <c r="F134" s="16"/>
     </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:6" ht="12.75" customHeight="1">
       <c r="A135" s="16"/>
       <c r="B135" s="16"/>
       <c r="C135" s="16"/>
@@ -2178,7 +2450,7 @@
       <c r="E135" s="16"/>
       <c r="F135" s="16"/>
     </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:6" ht="12.75" customHeight="1">
       <c r="A136" s="16"/>
       <c r="B136" s="16"/>
       <c r="C136" s="16"/>
@@ -2186,7 +2458,7 @@
       <c r="E136" s="16"/>
       <c r="F136" s="16"/>
     </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:6" ht="12.75" customHeight="1">
       <c r="A137" s="16"/>
       <c r="B137" s="16"/>
       <c r="C137" s="16"/>
@@ -2194,7 +2466,7 @@
       <c r="E137" s="16"/>
       <c r="F137" s="16"/>
     </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:6" ht="12.75" customHeight="1">
       <c r="A138" s="16"/>
       <c r="B138" s="16"/>
       <c r="C138" s="16"/>
@@ -2202,7 +2474,7 @@
       <c r="E138" s="16"/>
       <c r="F138" s="16"/>
     </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:6" ht="12.75" customHeight="1">
       <c r="A139" s="16"/>
       <c r="B139" s="16"/>
       <c r="C139" s="16"/>
@@ -2210,7 +2482,7 @@
       <c r="E139" s="16"/>
       <c r="F139" s="16"/>
     </row>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:6" ht="12.75" customHeight="1">
       <c r="A140" s="16"/>
       <c r="B140" s="16"/>
       <c r="C140" s="16"/>
@@ -2218,7 +2490,7 @@
       <c r="E140" s="16"/>
       <c r="F140" s="16"/>
     </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:6" ht="12.75" customHeight="1">
       <c r="A141" s="16"/>
       <c r="B141" s="16"/>
       <c r="C141" s="16"/>
@@ -2226,7 +2498,7 @@
       <c r="E141" s="16"/>
       <c r="F141" s="16"/>
     </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:6" ht="12.75" customHeight="1">
       <c r="A142" s="16"/>
       <c r="B142" s="16"/>
       <c r="C142" s="16"/>
@@ -2234,7 +2506,7 @@
       <c r="E142" s="16"/>
       <c r="F142" s="16"/>
     </row>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:6" ht="12.75" customHeight="1">
       <c r="A143" s="16"/>
       <c r="B143" s="16"/>
       <c r="C143" s="16"/>
@@ -2242,7 +2514,7 @@
       <c r="E143" s="16"/>
       <c r="F143" s="16"/>
     </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:6" ht="12.75" customHeight="1">
       <c r="A144" s="16"/>
       <c r="B144" s="16"/>
       <c r="C144" s="16"/>
@@ -2250,7 +2522,7 @@
       <c r="E144" s="16"/>
       <c r="F144" s="16"/>
     </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:6" ht="12.75" customHeight="1">
       <c r="A145" s="16"/>
       <c r="B145" s="16"/>
       <c r="C145" s="16"/>
@@ -2258,7 +2530,7 @@
       <c r="E145" s="16"/>
       <c r="F145" s="16"/>
     </row>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:6" ht="12.75" customHeight="1">
       <c r="A146" s="16"/>
       <c r="B146" s="16"/>
       <c r="C146" s="16"/>
@@ -2266,7 +2538,7 @@
       <c r="E146" s="16"/>
       <c r="F146" s="16"/>
     </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:6" ht="12.75" customHeight="1">
       <c r="A147" s="16"/>
       <c r="B147" s="16"/>
       <c r="C147" s="16"/>
@@ -2274,7 +2546,7 @@
       <c r="E147" s="16"/>
       <c r="F147" s="16"/>
     </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:6" ht="12.75" customHeight="1">
       <c r="A148" s="16"/>
       <c r="B148" s="16"/>
       <c r="C148" s="16"/>
@@ -2282,7 +2554,7 @@
       <c r="E148" s="16"/>
       <c r="F148" s="16"/>
     </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:6" ht="12.75" customHeight="1">
       <c r="A149" s="16"/>
       <c r="B149" s="16"/>
       <c r="C149" s="16"/>
@@ -2290,7 +2562,7 @@
       <c r="E149" s="16"/>
       <c r="F149" s="16"/>
     </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:6" ht="12.75" customHeight="1">
       <c r="A150" s="16"/>
       <c r="B150" s="16"/>
       <c r="C150" s="16"/>
@@ -2298,7 +2570,7 @@
       <c r="E150" s="16"/>
       <c r="F150" s="16"/>
     </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:6" ht="12.75" customHeight="1">
       <c r="A151" s="16"/>
       <c r="B151" s="16"/>
       <c r="C151" s="16"/>
@@ -2310,12 +2582,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PSP/문성혁/신수동크러셔_psp_20140424_문성혁.xlsx
+++ b/PSP/문성혁/신수동크러셔_psp_20140424_문성혁.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\workbench\sinsudong-crusher-home\PSP\문성혁\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BDAF8A-8077-4A01-B841-4A840D127070}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B177BA-A331-4457-8EEC-4F41981B5A8D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Time Recording Log</t>
   </si>
@@ -111,6 +111,14 @@
   </si>
   <si>
     <t>프론트엔드 레포지토리 별도 구축 및 리드미(스펙 등) 작성</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD 및 SRS 설계 및 유스케이스 재구조 및 앱 데모 시연</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>플로우 이해를 위한 데모버전 프론트엔드 앱 제작</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +645,7 @@
   <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12"/>
@@ -759,7 +767,7 @@
       </c>
       <c r="H7" s="14">
         <f>SUM(E6:E127)</f>
-        <v>507.00000000000045</v>
+        <v>852.00000000000057</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
@@ -994,30 +1002,46 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="7">
+        <v>43762</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.98958333333333337</v>
+      </c>
       <c r="D19" s="9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="11"/>
+        <v>165.00000000000011</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="7">
+        <v>43763</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.75</v>
+      </c>
       <c r="D20" s="9">
         <v>0</v>
       </c>
       <c r="E20" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="11"/>
+        <f t="shared" ref="E20" si="1">(C20-B20)*1440-D20</f>
+        <v>180</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1">
       <c r="A21" s="11"/>
@@ -1248,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="10">
-        <f t="shared" ref="E38:E69" si="1">(C38-B38)*1440-D38</f>
+        <f t="shared" ref="E38:E69" si="2">(C38-B38)*1440-D38</f>
         <v>0</v>
       </c>
       <c r="F38" s="11"/>
@@ -1261,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F39" s="11"/>
@@ -1274,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F40" s="11"/>
@@ -1287,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F41" s="11"/>
@@ -1300,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F42" s="11"/>
@@ -1313,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F43" s="11"/>
@@ -1326,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F44" s="11"/>
@@ -1339,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F45" s="11"/>
@@ -1352,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F46" s="11"/>
@@ -1365,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F47" s="11"/>
@@ -1378,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F48" s="11"/>
@@ -1391,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F49" s="11"/>
@@ -1404,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F50" s="11"/>
@@ -1417,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F51" s="11"/>
@@ -1430,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F52" s="11"/>
@@ -1443,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F53" s="11"/>
@@ -1456,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F54" s="11"/>
@@ -1469,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F55" s="11"/>
@@ -1482,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F56" s="11"/>
@@ -1495,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F57" s="11"/>
@@ -1508,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F58" s="11"/>
@@ -1521,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F59" s="11"/>
@@ -1534,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F60" s="11"/>
@@ -1547,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F61" s="11"/>
@@ -1560,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F62" s="11"/>
@@ -1573,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F63" s="11"/>
@@ -1586,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F64" s="11"/>
@@ -1599,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F65" s="11"/>
@@ -1612,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F66" s="11"/>
@@ -1625,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F67" s="11"/>
@@ -1638,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F68" s="11"/>
@@ -1651,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F69" s="11"/>
@@ -1664,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="10">
-        <f t="shared" ref="E70:E101" si="2">(C70-B70)*1440-D70</f>
+        <f t="shared" ref="E70:E101" si="3">(C70-B70)*1440-D70</f>
         <v>0</v>
       </c>
       <c r="F70" s="11"/>
@@ -1677,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F71" s="11"/>
@@ -1690,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F72" s="11"/>
@@ -1703,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F73" s="11"/>
@@ -1716,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F74" s="11"/>
@@ -1729,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F75" s="11"/>
@@ -1742,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F76" s="11"/>
@@ -1755,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F77" s="11"/>
@@ -1768,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F78" s="11"/>
@@ -1781,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F79" s="11"/>
@@ -1794,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F80" s="11"/>
@@ -1807,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F81" s="11"/>
@@ -1820,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F82" s="11"/>
@@ -1833,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F83" s="11"/>
@@ -1846,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F84" s="11"/>
@@ -1859,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F85" s="11"/>
@@ -1872,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F86" s="11"/>
@@ -1885,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F87" s="11"/>
@@ -1898,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F88" s="11"/>
@@ -1911,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F89" s="11"/>
@@ -1924,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F90" s="11"/>
@@ -1937,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F91" s="11"/>
@@ -1950,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F92" s="11"/>
@@ -1963,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F93" s="11"/>
@@ -1976,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F94" s="11"/>
@@ -1989,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F95" s="11"/>
@@ -2002,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F96" s="11"/>
@@ -2015,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F97" s="11"/>
@@ -2028,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F98" s="11"/>
@@ -2041,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F99" s="11"/>
@@ -2054,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F100" s="11"/>
@@ -2067,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F101" s="11"/>
@@ -2080,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="10">
-        <f t="shared" ref="E102:E127" si="3">(C102-B102)*1440-D102</f>
+        <f t="shared" ref="E102:E127" si="4">(C102-B102)*1440-D102</f>
         <v>0</v>
       </c>
       <c r="F102" s="11"/>
@@ -2093,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F103" s="11"/>
@@ -2106,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F104" s="11"/>
@@ -2119,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F105" s="11"/>
@@ -2132,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F106" s="11"/>
@@ -2145,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="E107" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F107" s="11"/>
@@ -2158,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F108" s="11"/>
@@ -2171,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F109" s="11"/>
@@ -2184,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F110" s="11"/>
@@ -2197,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F111" s="11"/>
@@ -2210,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="E112" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F112" s="11"/>
@@ -2223,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E113" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F113" s="11"/>
@@ -2236,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="E114" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F114" s="11"/>
@@ -2249,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="E115" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F115" s="11"/>
@@ -2262,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F116" s="11"/>
@@ -2275,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="E117" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F117" s="11"/>
@@ -2288,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F118" s="11"/>
@@ -2301,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="E119" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F119" s="11"/>
@@ -2314,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="E120" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F120" s="11"/>
@@ -2327,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F121" s="11"/>
@@ -2340,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="E122" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F122" s="11"/>
@@ -2353,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="E123" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F123" s="11"/>
@@ -2366,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="E124" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F124" s="11"/>
@@ -2379,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E125" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F125" s="11"/>
@@ -2392,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F126" s="11"/>
@@ -2405,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F127" s="11"/>

--- a/PSP/문성혁/신수동크러셔_psp_20140424_문성혁.xlsx
+++ b/PSP/문성혁/신수동크러셔_psp_20140424_문성혁.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\workbench\sinsudong-crusher-home\PSP\문성혁\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B177BA-A331-4457-8EEC-4F41981B5A8D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F53903-E29E-482B-8E0D-84EF86681391}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,11 +114,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>SAD 및 SRS 설계 및 유스케이스 재구조 및 앱 데모 시연</t>
+    <t>플로우 이해를 위한 데모버전 프론트엔드 앱 제작</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>플로우 이해를 위한 데모버전 프론트엔드 앱 제작</t>
+    <t>SAD 추천 알고리즘 개발 및 코드 개선</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +645,7 @@
   <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12"/>
@@ -1019,7 +1019,7 @@
         <v>165.00000000000011</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1">
@@ -1040,7 +1040,7 @@
         <v>180</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1">
